--- a/Followers.xlsx
+++ b/Followers.xlsx
@@ -494,7 +494,7 @@
     <t>7239973909</t>
   </si>
   <si>
-    <t>retchygod</t>
+    <t>24feetofsmoke</t>
   </si>
   <si>
     <t>Ruslan Vadimovich</t>
@@ -1142,7 +1142,7 @@
     <t>n_a_t_a_l_i_94</t>
   </si>
   <si>
-    <t>Наталья</t>
+    <t>Натали</t>
   </si>
   <si>
     <t>45649772571</t>
@@ -1271,6 +1271,15 @@
     <t>Сергей Николаевич</t>
   </si>
   <si>
+    <t>8628968557</t>
+  </si>
+  <si>
+    <t>cybulin2018</t>
+  </si>
+  <si>
+    <t>Сергей Цыбулин</t>
+  </si>
+  <si>
     <t>47540162800</t>
   </si>
   <si>
@@ -1359,15 +1368,6 @@
   </si>
   <si>
     <t>Юляшка (АЛЕКС)</t>
-  </si>
-  <si>
-    <t>47487893687</t>
-  </si>
-  <si>
-    <t>chill.resort</t>
-  </si>
-  <si>
-    <t>𝗖𝗵𝗶𝗹𝗹 𝗥𝗲𝘀𝗼𝗿𝘁💨</t>
   </si>
   <si>
     <t>4390935361</t>

--- a/Followers.xlsx
+++ b/Followers.xlsx
@@ -278,6 +278,15 @@
     <t>João Rocha</t>
   </si>
   <si>
+    <t>1289460729</t>
+  </si>
+  <si>
+    <t>miss_kvitka</t>
+  </si>
+  <si>
+    <t>Julia Marushchenko</t>
+  </si>
+  <si>
     <t>7861314594</t>
   </si>
   <si>
@@ -491,148 +500,130 @@
     <t>pupsarin</t>
   </si>
   <si>
+    <t>40924417527</t>
+  </si>
+  <si>
+    <t>sergostruk</t>
+  </si>
+  <si>
+    <t>Serg Ostruk</t>
+  </si>
+  <si>
+    <t>5836516802</t>
+  </si>
+  <si>
+    <t>sixteencolorsofme</t>
+  </si>
+  <si>
+    <t>Sergey Savchenko</t>
+  </si>
+  <si>
+    <t>14019691361</t>
+  </si>
+  <si>
+    <t>sharaman7777</t>
+  </si>
+  <si>
+    <t>Sharaman</t>
+  </si>
+  <si>
+    <t>22591367762</t>
+  </si>
+  <si>
+    <t>oserleoni</t>
+  </si>
+  <si>
+    <t>SO</t>
+  </si>
+  <si>
+    <t>5480621170</t>
+  </si>
+  <si>
+    <t>steshastepa</t>
+  </si>
+  <si>
+    <t>Stephanie 🌸</t>
+  </si>
+  <si>
+    <t>7404815080</t>
+  </si>
+  <si>
+    <t>kucheryavaya_s</t>
+  </si>
+  <si>
+    <t>Sveta</t>
+  </si>
+  <si>
+    <t>8665544898</t>
+  </si>
+  <si>
+    <t>ser18ab1</t>
+  </si>
+  <si>
+    <t>Table Tennis</t>
+  </si>
+  <si>
+    <t>41902230851</t>
+  </si>
+  <si>
+    <t>timofei.kasianov1992</t>
+  </si>
+  <si>
+    <t>Timofei Kasianov</t>
+  </si>
+  <si>
+    <t>5682107042</t>
+  </si>
+  <si>
+    <t>timurryazantcev</t>
+  </si>
+  <si>
+    <t>Timur Ryazantcev</t>
+  </si>
+  <si>
+    <t>272786242</t>
+  </si>
+  <si>
+    <t>cirius_kh</t>
+  </si>
+  <si>
+    <t>Tolya</t>
+  </si>
+  <si>
+    <t>4448583004</t>
+  </si>
+  <si>
+    <t>shevanton_</t>
+  </si>
+  <si>
+    <t>Toxa</t>
+  </si>
+  <si>
+    <t>3658771700</t>
+  </si>
+  <si>
+    <t>nazar.vita.m</t>
+  </si>
+  <si>
+    <t>Vita</t>
+  </si>
+  <si>
+    <t>5649619609</t>
+  </si>
+  <si>
+    <t>tengoku_</t>
+  </si>
+  <si>
+    <t>Vlada</t>
+  </si>
+  <si>
     <t>7239973909</t>
   </si>
   <si>
-    <t>24feetofsmoke</t>
-  </si>
-  <si>
-    <t>Ruslan Vadimovich</t>
-  </si>
-  <si>
-    <t>1325485215</t>
-  </si>
-  <si>
-    <t>samuel.barreto.357</t>
-  </si>
-  <si>
-    <t>Samuel Barreto</t>
-  </si>
-  <si>
-    <t>40924417527</t>
-  </si>
-  <si>
-    <t>sergostruk</t>
-  </si>
-  <si>
-    <t>Serg Ostruk</t>
-  </si>
-  <si>
-    <t>5836516802</t>
-  </si>
-  <si>
-    <t>sixteencolorsofme</t>
-  </si>
-  <si>
-    <t>Sergey Savchenko</t>
-  </si>
-  <si>
-    <t>14019691361</t>
-  </si>
-  <si>
-    <t>sharaman7777</t>
-  </si>
-  <si>
-    <t>Sharaman</t>
-  </si>
-  <si>
-    <t>22591367762</t>
-  </si>
-  <si>
-    <t>oserleoni</t>
-  </si>
-  <si>
-    <t>SO</t>
-  </si>
-  <si>
-    <t>5480621170</t>
-  </si>
-  <si>
-    <t>steshastepa</t>
-  </si>
-  <si>
-    <t>Stephanie 🌸🌺🌸</t>
-  </si>
-  <si>
-    <t>7404815080</t>
-  </si>
-  <si>
-    <t>kucheryavaya_s</t>
-  </si>
-  <si>
-    <t>Sveta</t>
-  </si>
-  <si>
-    <t>8665544898</t>
-  </si>
-  <si>
-    <t>ser18ab1</t>
-  </si>
-  <si>
-    <t>Table Tennis</t>
-  </si>
-  <si>
-    <t>41902230851</t>
-  </si>
-  <si>
-    <t>timofei.kasianov1992</t>
-  </si>
-  <si>
-    <t>Timofei Kasianov</t>
-  </si>
-  <si>
-    <t>5682107042</t>
-  </si>
-  <si>
-    <t>timurryazantcev</t>
-  </si>
-  <si>
-    <t>Timur Ryazantcev</t>
-  </si>
-  <si>
-    <t>272786242</t>
-  </si>
-  <si>
-    <t>cirius_kh</t>
-  </si>
-  <si>
-    <t>Tolya</t>
-  </si>
-  <si>
-    <t>4448583004</t>
-  </si>
-  <si>
-    <t>shevanton_</t>
-  </si>
-  <si>
-    <t>Toxa</t>
-  </si>
-  <si>
-    <t>3658771700</t>
-  </si>
-  <si>
-    <t>nazar.vita.m</t>
-  </si>
-  <si>
-    <t>Vita</t>
-  </si>
-  <si>
-    <t>5649619609</t>
-  </si>
-  <si>
-    <t>tengoku_</t>
-  </si>
-  <si>
-    <t>Vlada</t>
-  </si>
-  <si>
-    <t>1289460729</t>
-  </si>
-  <si>
-    <t>miss_kvitka</t>
-  </si>
-  <si>
-    <t>Yulia</t>
+    <t>piuumee</t>
+  </si>
+  <si>
+    <t>ʀᴜꜱʟᴀɴ ᴠᴀᴅɪᴍᴏᴠɪᴄʜ</t>
   </si>
   <si>
     <t>2460313075</t>
@@ -845,7 +836,7 @@
     <t>vova_mixx</t>
   </si>
   <si>
-    <t>Вова Сериков</t>
+    <t>Владимир Сериков</t>
   </si>
   <si>
     <t>17617023602</t>
@@ -963,6 +954,15 @@
   </si>
   <si>
     <t>Иван Безменов</t>
+  </si>
+  <si>
+    <t>39408861207</t>
+  </si>
+  <si>
+    <t>ivanvinnikov_06</t>
+  </si>
+  <si>
+    <t>Иван Винников</t>
   </si>
   <si>
     <t>39383552563</t>
@@ -2038,15 +2038,15 @@
         <v>158</v>
       </c>
       <c r="C55" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B56" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C56" t="s">
         <v>161</v>
@@ -2291,18 +2291,18 @@
         <v>226</v>
       </c>
       <c r="C78" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
+        <v>227</v>
+      </c>
+      <c r="B79" t="s">
         <v>228</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C79" t="s">
         <v>229</v>
-      </c>
-      <c r="C79" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="80">

--- a/Followers.xlsx
+++ b/Followers.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="479">
   <si>
     <t>1665158140</t>
   </si>
@@ -92,7 +92,7 @@
     <t>22927148540</t>
   </si>
   <si>
-    <t>utepilsrame</t>
+    <t>senorita_anastasita</t>
   </si>
   <si>
     <t>Anastasia</t>
@@ -197,6 +197,24 @@
     <t>Dmitry Smirnov</t>
   </si>
   <si>
+    <t>47870145431</t>
+  </si>
+  <si>
+    <t>dr.tabletennis</t>
+  </si>
+  <si>
+    <t>Dr. Table Tennis</t>
+  </si>
+  <si>
+    <t>37337003520</t>
+  </si>
+  <si>
+    <t>apextech.co</t>
+  </si>
+  <si>
+    <t>Driven by Synergy</t>
+  </si>
+  <si>
     <t>5653354215</t>
   </si>
   <si>
@@ -341,6 +359,15 @@
     <t>Kyryl Vasylenko</t>
   </si>
   <si>
+    <t>38430788275</t>
+  </si>
+  <si>
+    <t>latte_lancey_</t>
+  </si>
+  <si>
+    <t>Lancey  Latte</t>
+  </si>
+  <si>
     <t>5978809531</t>
   </si>
   <si>
@@ -350,6 +377,15 @@
     <t>Lena</t>
   </si>
   <si>
+    <t>1499488855</t>
+  </si>
+  <si>
+    <t>listo717</t>
+  </si>
+  <si>
+    <t>Listowellagyemang</t>
+  </si>
+  <si>
     <t>5589026095</t>
   </si>
   <si>
@@ -377,6 +413,15 @@
     <t>Locenok</t>
   </si>
   <si>
+    <t>1080866431</t>
+  </si>
+  <si>
+    <t>manuel_kobbi</t>
+  </si>
+  <si>
+    <t>Manuel Kobby</t>
+  </si>
+  <si>
     <t>4974294280</t>
   </si>
   <si>
@@ -485,6 +530,15 @@
     <t>Olha Sanzharovska</t>
   </si>
   <si>
+    <t>4872254528</t>
+  </si>
+  <si>
+    <t>podarki_podarki_podarki</t>
+  </si>
+  <si>
+    <t>Podarki Podarki</t>
+  </si>
+  <si>
     <t>6720001536</t>
   </si>
   <si>
@@ -500,6 +554,15 @@
     <t>pupsarin</t>
   </si>
   <si>
+    <t>7239973909</t>
+  </si>
+  <si>
+    <t>piuumee</t>
+  </si>
+  <si>
+    <t>Ruslan Vadimovich</t>
+  </si>
+  <si>
     <t>40924417527</t>
   </si>
   <si>
@@ -617,15 +680,6 @@
     <t>Vlada</t>
   </si>
   <si>
-    <t>7239973909</t>
-  </si>
-  <si>
-    <t>piuumee</t>
-  </si>
-  <si>
-    <t>ʀᴜꜱʟᴀɴ ᴠᴀᴅɪᴍᴏᴠɪᴄʜ</t>
-  </si>
-  <si>
     <t>2460313075</t>
   </si>
   <si>
@@ -875,6 +929,15 @@
     <t>Даша Луцива</t>
   </si>
   <si>
+    <t>8344571483</t>
+  </si>
+  <si>
+    <t>ibragimov_jal</t>
+  </si>
+  <si>
+    <t>Джалиль Ибрагимов</t>
+  </si>
+  <si>
     <t>6972153229</t>
   </si>
   <si>
@@ -989,7 +1052,7 @@
     <t>katiushakhomut</t>
   </si>
   <si>
-    <t>Катюшка 🎀 Хомут</t>
+    <t>Катюша Хомут</t>
   </si>
   <si>
     <t>1507437372</t>
@@ -1190,6 +1253,15 @@
     <t>Олег Баранов</t>
   </si>
   <si>
+    <t>9365290165</t>
+  </si>
+  <si>
+    <t>olegavrishenko</t>
+  </si>
+  <si>
+    <t>Олег Гавришенко</t>
+  </si>
+  <si>
     <t>9295779044</t>
   </si>
   <si>
@@ -1307,15 +1379,6 @@
     <t>СТУДИЯ JJ</t>
   </si>
   <si>
-    <t>4872254528</t>
-  </si>
-  <si>
-    <t>tanya_tanyushka_podarki</t>
-  </si>
-  <si>
-    <t>Татьяна Павлова</t>
-  </si>
-  <si>
     <t>9375328733</t>
   </si>
   <si>
@@ -1373,7 +1436,7 @@
     <t>4390935361</t>
   </si>
   <si>
-    <t>olhapozyvailo</t>
+    <t>olyapozyvailo</t>
   </si>
   <si>
     <t>𝙾𝚕𝚑𝚊 𝙿𝚘𝚣𝚢𝚟𝚊𝚒𝚕𝚘</t>
@@ -1430,7 +1493,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C155"/>
+  <dimension ref="A1:C162"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2049,70 +2112,70 @@
         <v>161</v>
       </c>
       <c r="C56" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B57" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C57" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B58" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C58" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B59" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C59" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B60" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C60" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B61" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C61" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B62" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C62" t="s">
         <v>179</v>
@@ -2291,73 +2354,73 @@
         <v>226</v>
       </c>
       <c r="C78" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B79" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C79" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B80" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C80" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B81" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C81" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B82" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C82" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B83" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C83" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
+        <v>243</v>
+      </c>
+      <c r="B84" t="s">
+        <v>244</v>
+      </c>
+      <c r="C84" t="s">
         <v>242</v>
-      </c>
-      <c r="B84" t="s">
-        <v>243</v>
-      </c>
-      <c r="C84" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="85">
@@ -3139,6 +3202,83 @@
       </c>
       <c r="C155" t="s">
         <v>457</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>458</v>
+      </c>
+      <c r="B156" t="s">
+        <v>459</v>
+      </c>
+      <c r="C156" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>461</v>
+      </c>
+      <c r="B157" t="s">
+        <v>462</v>
+      </c>
+      <c r="C157" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>464</v>
+      </c>
+      <c r="B158" t="s">
+        <v>465</v>
+      </c>
+      <c r="C158" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>467</v>
+      </c>
+      <c r="B159" t="s">
+        <v>468</v>
+      </c>
+      <c r="C159" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>470</v>
+      </c>
+      <c r="B160" t="s">
+        <v>471</v>
+      </c>
+      <c r="C160" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>473</v>
+      </c>
+      <c r="B161" t="s">
+        <v>474</v>
+      </c>
+      <c r="C161" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>476</v>
+      </c>
+      <c r="B162" t="s">
+        <v>477</v>
+      </c>
+      <c r="C162" t="s">
+        <v>478</v>
       </c>
     </row>
   </sheetData>

--- a/Followers.xlsx
+++ b/Followers.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="487">
   <si>
     <t>1665158140</t>
   </si>
@@ -149,7 +149,7 @@
     <t>anthony.kurochka</t>
   </si>
   <si>
-    <t>Anton Kurochka</t>
+    <t>Anton  Kurochka</t>
   </si>
   <si>
     <t>6888074835</t>
@@ -215,67 +215,832 @@
     <t>Driven by Synergy</t>
   </si>
   <si>
+    <t>8288595286</t>
+  </si>
+  <si>
+    <t>svetlanafarmasi_zt</t>
+  </si>
+  <si>
+    <t>farmasi_svetlana_zt</t>
+  </si>
+  <si>
+    <t>7694075739</t>
+  </si>
+  <si>
+    <t>greg.burghard</t>
+  </si>
+  <si>
+    <t>Gregory Bukharov</t>
+  </si>
+  <si>
+    <t>1583496075</t>
+  </si>
+  <si>
+    <t>hengamemansouri</t>
+  </si>
+  <si>
+    <t>Hengame Mansouri</t>
+  </si>
+  <si>
+    <t>4656429905</t>
+  </si>
+  <si>
+    <t>igor_garry_verb</t>
+  </si>
+  <si>
+    <t>Igor Garry  V.</t>
+  </si>
+  <si>
+    <t>39486630028</t>
+  </si>
+  <si>
+    <t>igorlenaverba</t>
+  </si>
+  <si>
+    <t>igorlena</t>
+  </si>
+  <si>
+    <t>46736323946</t>
+  </si>
+  <si>
+    <t>___chpok_v_pupok___</t>
+  </si>
+  <si>
+    <t>Igoryan</t>
+  </si>
+  <si>
+    <t>1918492898</t>
+  </si>
+  <si>
+    <t>joaorosha</t>
+  </si>
+  <si>
+    <t>João Rocha</t>
+  </si>
+  <si>
+    <t>1289460729</t>
+  </si>
+  <si>
+    <t>miss_kvitka</t>
+  </si>
+  <si>
+    <t>Julia Marushchenko</t>
+  </si>
+  <si>
+    <t>7861314594</t>
+  </si>
+  <si>
+    <t>jul.fox.0</t>
+  </si>
+  <si>
+    <t>Juliet</t>
+  </si>
+  <si>
+    <t>33582932</t>
+  </si>
+  <si>
+    <t>karelspil</t>
+  </si>
+  <si>
+    <t>Karel Spilka</t>
+  </si>
+  <si>
+    <t>3016611440</t>
+  </si>
+  <si>
+    <t>kate_fedia</t>
+  </si>
+  <si>
+    <t>Kate</t>
+  </si>
+  <si>
+    <t>19469763805</t>
+  </si>
+  <si>
+    <t>keisiedouble</t>
+  </si>
+  <si>
+    <t>KeiSie Double</t>
+  </si>
+  <si>
+    <t>420614558</t>
+  </si>
+  <si>
+    <t>ksyu_anomaly</t>
+  </si>
+  <si>
+    <t>Ksyu Torina</t>
+  </si>
+  <si>
+    <t>216793250</t>
+  </si>
+  <si>
+    <t>kirillvasilenko</t>
+  </si>
+  <si>
+    <t>Kyryl Vasylenko</t>
+  </si>
+  <si>
+    <t>5978809531</t>
+  </si>
+  <si>
+    <t>novik.elena_</t>
+  </si>
+  <si>
+    <t>Lena</t>
+  </si>
+  <si>
+    <t>1499488855</t>
+  </si>
+  <si>
+    <t>listo717</t>
+  </si>
+  <si>
+    <t>Listowellagyemang</t>
+  </si>
+  <si>
+    <t>5589026095</t>
+  </si>
+  <si>
+    <t>foxic_ua</t>
+  </si>
+  <si>
+    <t>Lisunov Oleksandr</t>
+  </si>
+  <si>
+    <t>2968278645</t>
+  </si>
+  <si>
+    <t>liudmyla_minenko</t>
+  </si>
+  <si>
+    <t>Liudmyla Minenko</t>
+  </si>
+  <si>
+    <t>6088040543</t>
+  </si>
+  <si>
+    <t>lolita_mechkauskayte</t>
+  </si>
+  <si>
+    <t>Locenok</t>
+  </si>
+  <si>
+    <t>1080866431</t>
+  </si>
+  <si>
+    <t>manuel_kobbi</t>
+  </si>
+  <si>
+    <t>Manuel Kobby</t>
+  </si>
+  <si>
+    <t>4974294280</t>
+  </si>
+  <si>
+    <t>_de.margitta_97_</t>
+  </si>
+  <si>
+    <t>Margitta</t>
+  </si>
+  <si>
+    <t>49695917410</t>
+  </si>
+  <si>
+    <t>msaltanovska</t>
+  </si>
+  <si>
+    <t>Marharyta Saltanovska</t>
+  </si>
+  <si>
+    <t>479640061</t>
+  </si>
+  <si>
+    <t>marinabezuglaya</t>
+  </si>
+  <si>
+    <t>Marina Bezuglaya</t>
+  </si>
+  <si>
+    <t>46085251422</t>
+  </si>
+  <si>
+    <t>table_tennis_mastens_store</t>
+  </si>
+  <si>
+    <t>Mastens-Global</t>
+  </si>
+  <si>
+    <t>46919920426</t>
+  </si>
+  <si>
+    <t>ms.zheldak</t>
+  </si>
+  <si>
+    <t>Mikhail Zheldak</t>
+  </si>
+  <si>
+    <t>4776861533</t>
+  </si>
+  <si>
+    <t>mykola_kretinin</t>
+  </si>
+  <si>
+    <t>Mykola Kretinin</t>
+  </si>
+  <si>
+    <t>8146374396</t>
+  </si>
+  <si>
+    <t>return_cat</t>
+  </si>
+  <si>
+    <t>Natalie</t>
+  </si>
+  <si>
+    <t>8704514423</t>
+  </si>
+  <si>
+    <t>natik1285</t>
+  </si>
+  <si>
+    <t>Natalka</t>
+  </si>
+  <si>
+    <t>3557576209</t>
+  </si>
+  <si>
+    <t>nikolay.rusanov7</t>
+  </si>
+  <si>
+    <t>Nikolay</t>
+  </si>
+  <si>
+    <t>2872342906</t>
+  </si>
+  <si>
+    <t>gaidenfeld</t>
+  </si>
+  <si>
+    <t>Oleg</t>
+  </si>
+  <si>
+    <t>1636627502</t>
+  </si>
+  <si>
+    <t>olgasmelik</t>
+  </si>
+  <si>
+    <t>Olga Smelik</t>
+  </si>
+  <si>
+    <t>3015590643</t>
+  </si>
+  <si>
+    <t>lunarlesta</t>
+  </si>
+  <si>
+    <t>Olha Sanzharovska</t>
+  </si>
+  <si>
+    <t>6720001536</t>
+  </si>
+  <si>
+    <t>vita.prishchepa</t>
+  </si>
+  <si>
+    <t>PrishchepaVictoria</t>
+  </si>
+  <si>
+    <t>718852048</t>
+  </si>
+  <si>
+    <t>pupsarin</t>
+  </si>
+  <si>
+    <t>7239973909</t>
+  </si>
+  <si>
+    <t>therealretchy</t>
+  </si>
+  <si>
+    <t>Ruslan Vadimovich</t>
+  </si>
+  <si>
+    <t>40924417527</t>
+  </si>
+  <si>
+    <t>sergostruk</t>
+  </si>
+  <si>
+    <t>Serg Ostruk</t>
+  </si>
+  <si>
+    <t>5836516802</t>
+  </si>
+  <si>
+    <t>sixteencolorsofme</t>
+  </si>
+  <si>
+    <t>Sergey Savchenko</t>
+  </si>
+  <si>
+    <t>14019691361</t>
+  </si>
+  <si>
+    <t>sharaman7777</t>
+  </si>
+  <si>
+    <t>Sharaman</t>
+  </si>
+  <si>
+    <t>22591367762</t>
+  </si>
+  <si>
+    <t>oserleoni</t>
+  </si>
+  <si>
+    <t>SO</t>
+  </si>
+  <si>
+    <t>5480621170</t>
+  </si>
+  <si>
+    <t>stephaniesamo</t>
+  </si>
+  <si>
+    <t>Stephanie 🌸</t>
+  </si>
+  <si>
+    <t>7404815080</t>
+  </si>
+  <si>
+    <t>kucheryavaya_s</t>
+  </si>
+  <si>
+    <t>Sveta</t>
+  </si>
+  <si>
+    <t>8665544898</t>
+  </si>
+  <si>
+    <t>ser18ab1</t>
+  </si>
+  <si>
+    <t>Table Tennis</t>
+  </si>
+  <si>
+    <t>2208926227</t>
+  </si>
+  <si>
+    <t>table10nis</t>
+  </si>
+  <si>
+    <t>49494535539</t>
+  </si>
+  <si>
+    <t>baterfly.2021</t>
+  </si>
+  <si>
+    <t>Tex.Textile</t>
+  </si>
+  <si>
+    <t>41902230851</t>
+  </si>
+  <si>
+    <t>timofei.kasianov1992</t>
+  </si>
+  <si>
+    <t>Timofei Kasianov</t>
+  </si>
+  <si>
+    <t>5682107042</t>
+  </si>
+  <si>
+    <t>timurryazantcev</t>
+  </si>
+  <si>
+    <t>Timur Ryazantcev</t>
+  </si>
+  <si>
+    <t>272786242</t>
+  </si>
+  <si>
+    <t>cirius_kh</t>
+  </si>
+  <si>
+    <t>Tolya</t>
+  </si>
+  <si>
+    <t>4448583004</t>
+  </si>
+  <si>
+    <t>shevanton_</t>
+  </si>
+  <si>
+    <t>Toxa</t>
+  </si>
+  <si>
+    <t>46096254759</t>
+  </si>
+  <si>
+    <t>_ttpro_</t>
+  </si>
+  <si>
+    <t>TT-pro</t>
+  </si>
+  <si>
+    <t>3658771700</t>
+  </si>
+  <si>
+    <t>nazar.vita.m</t>
+  </si>
+  <si>
+    <t>Vita</t>
+  </si>
+  <si>
+    <t>5649619609</t>
+  </si>
+  <si>
+    <t>tengoku_</t>
+  </si>
+  <si>
+    <t>Vlada</t>
+  </si>
+  <si>
+    <t>2460313075</t>
+  </si>
+  <si>
+    <t>krutoff_style</t>
+  </si>
+  <si>
+    <t>Александр Крутянский</t>
+  </si>
+  <si>
+    <t>603510930</t>
+  </si>
+  <si>
+    <t>caxap1987</t>
+  </si>
+  <si>
+    <t>Александр Неживой</t>
+  </si>
+  <si>
+    <t>4297113243</t>
+  </si>
+  <si>
+    <t>alexsavochenko</t>
+  </si>
+  <si>
+    <t>Александр Савоченко</t>
+  </si>
+  <si>
+    <t>43157567373</t>
+  </si>
+  <si>
+    <t>aleksandrsigin</t>
+  </si>
+  <si>
+    <t>Александр Сигин</t>
+  </si>
+  <si>
+    <t>45293517096</t>
+  </si>
+  <si>
+    <t>aleksandrstepanenko761</t>
+  </si>
+  <si>
+    <t>Александр Степаненко</t>
+  </si>
+  <si>
+    <t>2052730441</t>
+  </si>
+  <si>
+    <t>kyb85</t>
+  </si>
+  <si>
+    <t>Алексей</t>
+  </si>
+  <si>
+    <t>2262155321</t>
+  </si>
+  <si>
+    <t>nastyaionenko</t>
+  </si>
+  <si>
+    <t>Анастасия</t>
+  </si>
+  <si>
+    <t>1675609130</t>
+  </si>
+  <si>
+    <t>anastasia_vikhot</t>
+  </si>
+  <si>
+    <t>5800991337</t>
+  </si>
+  <si>
+    <t>anatoliy_gusev1</t>
+  </si>
+  <si>
+    <t>Анатолий Гусев</t>
+  </si>
+  <si>
+    <t>1423890471</t>
+  </si>
+  <si>
+    <t>a__kostenko__</t>
+  </si>
+  <si>
+    <t>Андрей Костенко</t>
+  </si>
+  <si>
+    <t>9381435639</t>
+  </si>
+  <si>
+    <t>pashenko_lisihansk</t>
+  </si>
+  <si>
+    <t>Андрюха Пащенко</t>
+  </si>
+  <si>
+    <t>8571005253</t>
+  </si>
+  <si>
+    <t>shekhovtsov_anton</t>
+  </si>
+  <si>
+    <t>Антон Шеховцов</t>
+  </si>
+  <si>
+    <t>643074866</t>
+  </si>
+  <si>
+    <t>justhappyann</t>
+  </si>
+  <si>
+    <t>Аня Саранча</t>
+  </si>
+  <si>
+    <t>1760538822</t>
+  </si>
+  <si>
+    <t>artem_pavlov_ua</t>
+  </si>
+  <si>
+    <t>Артём Павлов</t>
+  </si>
+  <si>
+    <t>12035188875</t>
+  </si>
+  <si>
+    <t>mswaleron</t>
+  </si>
+  <si>
+    <t>Валерий</t>
+  </si>
+  <si>
+    <t>1718182182</t>
+  </si>
+  <si>
+    <t>smartfoxdev</t>
+  </si>
+  <si>
+    <t>Валерий Кузнецов</t>
+  </si>
+  <si>
+    <t>17928430301</t>
+  </si>
+  <si>
+    <t>tiffany_kharkiv</t>
+  </si>
+  <si>
+    <t>Валерия Тиффани</t>
+  </si>
+  <si>
+    <t>42271971663</t>
+  </si>
+  <si>
+    <t>valentine.kravtsov</t>
+  </si>
+  <si>
+    <t>Валик Кравцов</t>
+  </si>
+  <si>
+    <t>7772209292</t>
+  </si>
+  <si>
+    <t>boiko317</t>
+  </si>
+  <si>
+    <t>Виктор Бойко</t>
+  </si>
+  <si>
+    <t>5989541461</t>
+  </si>
+  <si>
+    <t>lavronchik_viktoriia</t>
+  </si>
+  <si>
+    <t>Виктория</t>
+  </si>
+  <si>
+    <t>4398943967</t>
+  </si>
+  <si>
+    <t>vikki__tkachenko</t>
+  </si>
+  <si>
+    <t>Виктория (Заречная) Ткаченко🍀</t>
+  </si>
+  <si>
+    <t>7501003464</t>
+  </si>
+  <si>
+    <t>vladsirozhko</t>
+  </si>
+  <si>
+    <t>Влад Сирожко</t>
+  </si>
+  <si>
+    <t>2987001354</t>
+  </si>
+  <si>
+    <t>vovo444ka86</t>
+  </si>
+  <si>
+    <t>Владимир</t>
+  </si>
+  <si>
+    <t>6139757237</t>
+  </si>
+  <si>
+    <t>vova_mixx</t>
+  </si>
+  <si>
+    <t>Владимир Сериков</t>
+  </si>
+  <si>
+    <t>17617023602</t>
+  </si>
+  <si>
+    <t>viacheslavrudenko34</t>
+  </si>
+  <si>
+    <t>Вячеслав Руденко</t>
+  </si>
+  <si>
+    <t>5443128991</t>
+  </si>
+  <si>
+    <t>gleb_zotov7</t>
+  </si>
+  <si>
+    <t>Глеб Зотов</t>
+  </si>
+  <si>
+    <t>5973121850</t>
+  </si>
+  <si>
+    <t>grigoriy.belov</t>
+  </si>
+  <si>
+    <t>Григорий Белов</t>
+  </si>
+  <si>
+    <t>3807973440</t>
+  </si>
+  <si>
+    <t>dashalutsiva</t>
+  </si>
+  <si>
+    <t>Даша Луцива</t>
+  </si>
+  <si>
+    <t>8344571483</t>
+  </si>
+  <si>
+    <t>ibragimov_jal</t>
+  </si>
+  <si>
+    <t>Джалиль Ибрагимов</t>
+  </si>
+  <si>
+    <t>6972153229</t>
+  </si>
+  <si>
+    <t>danileichenko.dmitriy</t>
+  </si>
+  <si>
+    <t>Дмитрий Данилейченко</t>
+  </si>
+  <si>
+    <t>4205223257</t>
+  </si>
+  <si>
+    <t>dmitriy_kurilo</t>
+  </si>
+  <si>
+    <t>Дмитрий Курило</t>
+  </si>
+  <si>
+    <t>21967846913</t>
+  </si>
+  <si>
+    <t>malashenko608</t>
+  </si>
+  <si>
+    <t>Дмитрий Малашенко</t>
+  </si>
+  <si>
+    <t>6537477830</t>
+  </si>
+  <si>
+    <t>darkward666</t>
+  </si>
+  <si>
+    <t>Дмитрий Слончинский</t>
+  </si>
+  <si>
+    <t>5360516989</t>
+  </si>
+  <si>
+    <t>yevgeniya_pishchevskaya</t>
+  </si>
+  <si>
+    <t>Евгения Пищевская</t>
+  </si>
+  <si>
+    <t>46571608989</t>
+  </si>
+  <si>
+    <t>k.a_t_rin.photo</t>
+  </si>
+  <si>
+    <t>Екатерина</t>
+  </si>
+  <si>
+    <t>1980124718</t>
+  </si>
+  <si>
+    <t>k.a_t_r.i.n</t>
+  </si>
+  <si>
+    <t>Екатерина Ступак</t>
+  </si>
+  <si>
+    <t>8941412338</t>
+  </si>
+  <si>
+    <t>lukina_lenchik</t>
+  </si>
+  <si>
+    <t>Елена Лукина</t>
+  </si>
+  <si>
     <t>5653354215</t>
   </si>
   <si>
     <t>morris_my_life</t>
   </si>
   <si>
-    <t>Elena Revyakina</t>
-  </si>
-  <si>
-    <t>8288595286</t>
-  </si>
-  <si>
-    <t>svetlanafarmasi_zt</t>
-  </si>
-  <si>
-    <t>farmasi_svetlana_zt</t>
-  </si>
-  <si>
-    <t>7694075739</t>
-  </si>
-  <si>
-    <t>greg.burghard</t>
-  </si>
-  <si>
-    <t>Gregory Bukharov</t>
-  </si>
-  <si>
-    <t>1583496075</t>
-  </si>
-  <si>
-    <t>hengamemansouri</t>
-  </si>
-  <si>
-    <t>Hengame Mansouri</t>
-  </si>
-  <si>
-    <t>4656429905</t>
-  </si>
-  <si>
-    <t>igor_garry_verb</t>
-  </si>
-  <si>
-    <t>Igor Garry  V.</t>
-  </si>
-  <si>
-    <t>39486630028</t>
-  </si>
-  <si>
-    <t>igorlenaverba</t>
-  </si>
-  <si>
-    <t>igorlena</t>
-  </si>
-  <si>
-    <t>46736323946</t>
-  </si>
-  <si>
-    <t>___chpok_v_pupok___</t>
-  </si>
-  <si>
-    <t>Igoryan</t>
+    <t>Елена Ревякина</t>
+  </si>
+  <si>
+    <t>3083007165</t>
+  </si>
+  <si>
+    <t>bezmen.live</t>
+  </si>
+  <si>
+    <t>Иван Безменов</t>
+  </si>
+  <si>
+    <t>39408861207</t>
+  </si>
+  <si>
+    <t>ivanvinnikov_06</t>
+  </si>
+  <si>
+    <t>Иван Винников</t>
+  </si>
+  <si>
+    <t>39383552563</t>
+  </si>
+  <si>
+    <t>vlogs_ivan_life</t>
+  </si>
+  <si>
+    <t>Иван Пелих</t>
+  </si>
+  <si>
+    <t>8018318830</t>
+  </si>
+  <si>
+    <t>iliyamisevra</t>
+  </si>
+  <si>
+    <t>Илья Мисевра</t>
   </si>
   <si>
     <t>6894521451</t>
@@ -284,766 +1049,7 @@
     <t>ri.lykova</t>
   </si>
   <si>
-    <t>Irina Lykova</t>
-  </si>
-  <si>
-    <t>1918492898</t>
-  </si>
-  <si>
-    <t>joaorosha</t>
-  </si>
-  <si>
-    <t>João Rocha</t>
-  </si>
-  <si>
-    <t>1289460729</t>
-  </si>
-  <si>
-    <t>miss_kvitka</t>
-  </si>
-  <si>
-    <t>Julia Marushchenko</t>
-  </si>
-  <si>
-    <t>7861314594</t>
-  </si>
-  <si>
-    <t>jul.fox.0</t>
-  </si>
-  <si>
-    <t>Juliet</t>
-  </si>
-  <si>
-    <t>33582932</t>
-  </si>
-  <si>
-    <t>karelspil</t>
-  </si>
-  <si>
-    <t>Karel Spilka</t>
-  </si>
-  <si>
-    <t>3016611440</t>
-  </si>
-  <si>
-    <t>kate_fedia</t>
-  </si>
-  <si>
-    <t>Kate</t>
-  </si>
-  <si>
-    <t>19469763805</t>
-  </si>
-  <si>
-    <t>keisiedouble</t>
-  </si>
-  <si>
-    <t>KeiSie Double</t>
-  </si>
-  <si>
-    <t>420614558</t>
-  </si>
-  <si>
-    <t>ksyu_anomaly</t>
-  </si>
-  <si>
-    <t>Ksyu Torina</t>
-  </si>
-  <si>
-    <t>216793250</t>
-  </si>
-  <si>
-    <t>kirillvasilenko</t>
-  </si>
-  <si>
-    <t>Kyryl Vasylenko</t>
-  </si>
-  <si>
-    <t>38430788275</t>
-  </si>
-  <si>
-    <t>latte_lancey_</t>
-  </si>
-  <si>
-    <t>Lancey  Latte</t>
-  </si>
-  <si>
-    <t>5978809531</t>
-  </si>
-  <si>
-    <t>novik.elena_</t>
-  </si>
-  <si>
-    <t>Lena</t>
-  </si>
-  <si>
-    <t>1499488855</t>
-  </si>
-  <si>
-    <t>listo717</t>
-  </si>
-  <si>
-    <t>Listowellagyemang</t>
-  </si>
-  <si>
-    <t>5589026095</t>
-  </si>
-  <si>
-    <t>foxic_ua</t>
-  </si>
-  <si>
-    <t>Lisunov Oleksandr</t>
-  </si>
-  <si>
-    <t>2968278645</t>
-  </si>
-  <si>
-    <t>liudmyla_minenko</t>
-  </si>
-  <si>
-    <t>Liudmyla Minenko</t>
-  </si>
-  <si>
-    <t>6088040543</t>
-  </si>
-  <si>
-    <t>lolita_mechkauskayte</t>
-  </si>
-  <si>
-    <t>Locenok</t>
-  </si>
-  <si>
-    <t>1080866431</t>
-  </si>
-  <si>
-    <t>manuel_kobbi</t>
-  </si>
-  <si>
-    <t>Manuel Kobby</t>
-  </si>
-  <si>
-    <t>4974294280</t>
-  </si>
-  <si>
-    <t>_de.margitta_97_</t>
-  </si>
-  <si>
-    <t>Margitta</t>
-  </si>
-  <si>
-    <t>2007944267</t>
-  </si>
-  <si>
-    <t>saltanovska</t>
-  </si>
-  <si>
-    <t>Marharyta Saltanovska💜</t>
-  </si>
-  <si>
-    <t>479640061</t>
-  </si>
-  <si>
-    <t>marinabezuglaya</t>
-  </si>
-  <si>
-    <t>Marina Bezuglaya</t>
-  </si>
-  <si>
-    <t>46085251422</t>
-  </si>
-  <si>
-    <t>table_tennis_mastens_store</t>
-  </si>
-  <si>
-    <t>Mastens-Global</t>
-  </si>
-  <si>
-    <t>46919920426</t>
-  </si>
-  <si>
-    <t>ms.zheldak</t>
-  </si>
-  <si>
-    <t>Mikhail Zheldak</t>
-  </si>
-  <si>
-    <t>4776861533</t>
-  </si>
-  <si>
-    <t>mykola_kretinin</t>
-  </si>
-  <si>
-    <t>Mykola Kretinin</t>
-  </si>
-  <si>
-    <t>8146374396</t>
-  </si>
-  <si>
-    <t>return_cat</t>
-  </si>
-  <si>
-    <t>Natalie</t>
-  </si>
-  <si>
-    <t>8704514423</t>
-  </si>
-  <si>
-    <t>natik1285</t>
-  </si>
-  <si>
-    <t>Natalka</t>
-  </si>
-  <si>
-    <t>3557576209</t>
-  </si>
-  <si>
-    <t>nikolay.rusanov7</t>
-  </si>
-  <si>
-    <t>Nikolay</t>
-  </si>
-  <si>
-    <t>2872342906</t>
-  </si>
-  <si>
-    <t>gaidenfeld</t>
-  </si>
-  <si>
-    <t>Oleg</t>
-  </si>
-  <si>
-    <t>1636627502</t>
-  </si>
-  <si>
-    <t>olgasmelik</t>
-  </si>
-  <si>
-    <t>Olga Smelik</t>
-  </si>
-  <si>
-    <t>3015590643</t>
-  </si>
-  <si>
-    <t>lunarlesta</t>
-  </si>
-  <si>
-    <t>Olha Sanzharovska</t>
-  </si>
-  <si>
-    <t>4872254528</t>
-  </si>
-  <si>
-    <t>podarki_podarki_podarki</t>
-  </si>
-  <si>
-    <t>Podarki Podarki</t>
-  </si>
-  <si>
-    <t>6720001536</t>
-  </si>
-  <si>
-    <t>vita.prishchepa</t>
-  </si>
-  <si>
-    <t>PrishchepaVictoria</t>
-  </si>
-  <si>
-    <t>718852048</t>
-  </si>
-  <si>
-    <t>pupsarin</t>
-  </si>
-  <si>
-    <t>7239973909</t>
-  </si>
-  <si>
-    <t>piuumee</t>
-  </si>
-  <si>
-    <t>Ruslan Vadimovich</t>
-  </si>
-  <si>
-    <t>40924417527</t>
-  </si>
-  <si>
-    <t>sergostruk</t>
-  </si>
-  <si>
-    <t>Serg Ostruk</t>
-  </si>
-  <si>
-    <t>5836516802</t>
-  </si>
-  <si>
-    <t>sixteencolorsofme</t>
-  </si>
-  <si>
-    <t>Sergey Savchenko</t>
-  </si>
-  <si>
-    <t>14019691361</t>
-  </si>
-  <si>
-    <t>sharaman7777</t>
-  </si>
-  <si>
-    <t>Sharaman</t>
-  </si>
-  <si>
-    <t>22591367762</t>
-  </si>
-  <si>
-    <t>oserleoni</t>
-  </si>
-  <si>
-    <t>SO</t>
-  </si>
-  <si>
-    <t>5480621170</t>
-  </si>
-  <si>
-    <t>steshastepa</t>
-  </si>
-  <si>
-    <t>Stephanie 🌸</t>
-  </si>
-  <si>
-    <t>7404815080</t>
-  </si>
-  <si>
-    <t>kucheryavaya_s</t>
-  </si>
-  <si>
-    <t>Sveta</t>
-  </si>
-  <si>
-    <t>8665544898</t>
-  </si>
-  <si>
-    <t>ser18ab1</t>
-  </si>
-  <si>
-    <t>Table Tennis</t>
-  </si>
-  <si>
-    <t>41902230851</t>
-  </si>
-  <si>
-    <t>timofei.kasianov1992</t>
-  </si>
-  <si>
-    <t>Timofei Kasianov</t>
-  </si>
-  <si>
-    <t>5682107042</t>
-  </si>
-  <si>
-    <t>timurryazantcev</t>
-  </si>
-  <si>
-    <t>Timur Ryazantcev</t>
-  </si>
-  <si>
-    <t>272786242</t>
-  </si>
-  <si>
-    <t>cirius_kh</t>
-  </si>
-  <si>
-    <t>Tolya</t>
-  </si>
-  <si>
-    <t>4448583004</t>
-  </si>
-  <si>
-    <t>shevanton_</t>
-  </si>
-  <si>
-    <t>Toxa</t>
-  </si>
-  <si>
-    <t>3658771700</t>
-  </si>
-  <si>
-    <t>nazar.vita.m</t>
-  </si>
-  <si>
-    <t>Vita</t>
-  </si>
-  <si>
-    <t>5649619609</t>
-  </si>
-  <si>
-    <t>tengoku_</t>
-  </si>
-  <si>
-    <t>Vlada</t>
-  </si>
-  <si>
-    <t>2460313075</t>
-  </si>
-  <si>
-    <t>krutoff_style</t>
-  </si>
-  <si>
-    <t>Александр Крутянский</t>
-  </si>
-  <si>
-    <t>603510930</t>
-  </si>
-  <si>
-    <t>caxap1987</t>
-  </si>
-  <si>
-    <t>Александр Неживой</t>
-  </si>
-  <si>
-    <t>4297113243</t>
-  </si>
-  <si>
-    <t>alexsavochenko</t>
-  </si>
-  <si>
-    <t>Александр Савоченко</t>
-  </si>
-  <si>
-    <t>43157567373</t>
-  </si>
-  <si>
-    <t>aleksandrsigin</t>
-  </si>
-  <si>
-    <t>Александр Сигин</t>
-  </si>
-  <si>
-    <t>45293517096</t>
-  </si>
-  <si>
-    <t>aleksandrstepanenko761</t>
-  </si>
-  <si>
-    <t>Александр Степаненко</t>
-  </si>
-  <si>
-    <t>2052730441</t>
-  </si>
-  <si>
-    <t>kyb85</t>
-  </si>
-  <si>
-    <t>Алексей</t>
-  </si>
-  <si>
-    <t>2262155321</t>
-  </si>
-  <si>
-    <t>nastyaionenko</t>
-  </si>
-  <si>
-    <t>Анастасия</t>
-  </si>
-  <si>
-    <t>1675609130</t>
-  </si>
-  <si>
-    <t>anastasia_vikhot</t>
-  </si>
-  <si>
-    <t>5800991337</t>
-  </si>
-  <si>
-    <t>anatoliy_gusev1</t>
-  </si>
-  <si>
-    <t>Анатолий Гусев</t>
-  </si>
-  <si>
-    <t>1423890471</t>
-  </si>
-  <si>
-    <t>a__kostenko__</t>
-  </si>
-  <si>
-    <t>Андрей Костенко</t>
-  </si>
-  <si>
-    <t>9381435639</t>
-  </si>
-  <si>
-    <t>pashenko_lisihansk</t>
-  </si>
-  <si>
-    <t>Андрюха Пащенко</t>
-  </si>
-  <si>
-    <t>8571005253</t>
-  </si>
-  <si>
-    <t>shekhovtsov_anton</t>
-  </si>
-  <si>
-    <t>Антон Шеховцов</t>
-  </si>
-  <si>
-    <t>643074866</t>
-  </si>
-  <si>
-    <t>justhappyann</t>
-  </si>
-  <si>
-    <t>Аня Саранча</t>
-  </si>
-  <si>
-    <t>1760538822</t>
-  </si>
-  <si>
-    <t>artem_pavlov_ua</t>
-  </si>
-  <si>
-    <t>Артём Павлов</t>
-  </si>
-  <si>
-    <t>12035188875</t>
-  </si>
-  <si>
-    <t>mswaleron</t>
-  </si>
-  <si>
-    <t>Валерий</t>
-  </si>
-  <si>
-    <t>1718182182</t>
-  </si>
-  <si>
-    <t>smartfoxdev</t>
-  </si>
-  <si>
-    <t>Валерий Кузнецов</t>
-  </si>
-  <si>
-    <t>17928430301</t>
-  </si>
-  <si>
-    <t>tiffany_kharkiv</t>
-  </si>
-  <si>
-    <t>Валерия Тиффани</t>
-  </si>
-  <si>
-    <t>42271971663</t>
-  </si>
-  <si>
-    <t>valentine.kravtsov</t>
-  </si>
-  <si>
-    <t>Валик Кравцов</t>
-  </si>
-  <si>
-    <t>7772209292</t>
-  </si>
-  <si>
-    <t>boiko317</t>
-  </si>
-  <si>
-    <t>Виктор Бойко</t>
-  </si>
-  <si>
-    <t>5989541461</t>
-  </si>
-  <si>
-    <t>lavronchik_viktoriia</t>
-  </si>
-  <si>
-    <t>Виктория</t>
-  </si>
-  <si>
-    <t>4398943967</t>
-  </si>
-  <si>
-    <t>vikki__tkachenko</t>
-  </si>
-  <si>
-    <t>Виктория (Заречная) Ткаченко🍀</t>
-  </si>
-  <si>
-    <t>7501003464</t>
-  </si>
-  <si>
-    <t>vladsirozhko</t>
-  </si>
-  <si>
-    <t>Влад Сирожко</t>
-  </si>
-  <si>
-    <t>2987001354</t>
-  </si>
-  <si>
-    <t>vovo444ka86</t>
-  </si>
-  <si>
-    <t>Владимир</t>
-  </si>
-  <si>
-    <t>6139757237</t>
-  </si>
-  <si>
-    <t>vova_mixx</t>
-  </si>
-  <si>
-    <t>Владимир Сериков</t>
-  </si>
-  <si>
-    <t>17617023602</t>
-  </si>
-  <si>
-    <t>viacheslavrudenko34</t>
-  </si>
-  <si>
-    <t>Вячеслав Руденко</t>
-  </si>
-  <si>
-    <t>5443128991</t>
-  </si>
-  <si>
-    <t>gleb_zotov7</t>
-  </si>
-  <si>
-    <t>Глеб Зотов</t>
-  </si>
-  <si>
-    <t>5973121850</t>
-  </si>
-  <si>
-    <t>grigoriy.belov</t>
-  </si>
-  <si>
-    <t>Григорий Белов</t>
-  </si>
-  <si>
-    <t>3807973440</t>
-  </si>
-  <si>
-    <t>dashalutsiva</t>
-  </si>
-  <si>
-    <t>Даша Луцива</t>
-  </si>
-  <si>
-    <t>8344571483</t>
-  </si>
-  <si>
-    <t>ibragimov_jal</t>
-  </si>
-  <si>
-    <t>Джалиль Ибрагимов</t>
-  </si>
-  <si>
-    <t>6972153229</t>
-  </si>
-  <si>
-    <t>danileichenko.dmitriy</t>
-  </si>
-  <si>
-    <t>Дмитрий Данилейченко</t>
-  </si>
-  <si>
-    <t>4205223257</t>
-  </si>
-  <si>
-    <t>dmitriy_kurilo</t>
-  </si>
-  <si>
-    <t>Дмитрий Курило</t>
-  </si>
-  <si>
-    <t>21967846913</t>
-  </si>
-  <si>
-    <t>malashenko608</t>
-  </si>
-  <si>
-    <t>Дмитрий Малашенко</t>
-  </si>
-  <si>
-    <t>6537477830</t>
-  </si>
-  <si>
-    <t>darkward666</t>
-  </si>
-  <si>
-    <t>Дмитрий Слончинский</t>
-  </si>
-  <si>
-    <t>5360516989</t>
-  </si>
-  <si>
-    <t>yevgeniya_pishchevskaya</t>
-  </si>
-  <si>
-    <t>Евгения Пищевская</t>
-  </si>
-  <si>
-    <t>46571608989</t>
-  </si>
-  <si>
-    <t>k.a_t_rin.photo</t>
-  </si>
-  <si>
-    <t>Екатерина</t>
-  </si>
-  <si>
-    <t>1980124718</t>
-  </si>
-  <si>
-    <t>k.a_t_r.i.n</t>
-  </si>
-  <si>
-    <t>Екатерина Сергеевна</t>
-  </si>
-  <si>
-    <t>8941412338</t>
-  </si>
-  <si>
-    <t>lukina_lenchik</t>
-  </si>
-  <si>
-    <t>Елена Лукина</t>
-  </si>
-  <si>
-    <t>3083007165</t>
-  </si>
-  <si>
-    <t>bezmen.live</t>
-  </si>
-  <si>
-    <t>Иван Безменов</t>
-  </si>
-  <si>
-    <t>39408861207</t>
-  </si>
-  <si>
-    <t>ivanvinnikov_06</t>
-  </si>
-  <si>
-    <t>Иван Винников</t>
-  </si>
-  <si>
-    <t>39383552563</t>
-  </si>
-  <si>
-    <t>vlogs_ivan_life</t>
-  </si>
-  <si>
-    <t>Иван Пелих</t>
-  </si>
-  <si>
-    <t>8018318830</t>
-  </si>
-  <si>
-    <t>iliyamisevra</t>
-  </si>
-  <si>
-    <t>Илья Мисевра</t>
+    <t>Ирина Лыкова-Бондарева</t>
   </si>
   <si>
     <t>3298306558</t>
@@ -1082,6 +1088,15 @@
     <t>Лена Диденко</t>
   </si>
   <si>
+    <t>11523897042</t>
+  </si>
+  <si>
+    <t>naumenko1298</t>
+  </si>
+  <si>
+    <t>Лидия Науменко</t>
+  </si>
+  <si>
     <t>16127390313</t>
   </si>
   <si>
@@ -1232,18 +1247,27 @@
     <t>ttukraine</t>
   </si>
   <si>
-    <t>НТ Украины</t>
+    <t>НТ України</t>
   </si>
   <si>
     <t>6535902432</t>
   </si>
   <si>
-    <t>oksanakriokhova</t>
+    <t>oksana_krekhova</t>
   </si>
   <si>
     <t>Оксана Крёхова</t>
   </si>
   <si>
+    <t>49513832996</t>
+  </si>
+  <si>
+    <t>olezhanskiy_official</t>
+  </si>
+  <si>
+    <t>Олег</t>
+  </si>
+  <si>
     <t>6780188613</t>
   </si>
   <si>
@@ -1253,157 +1277,157 @@
     <t>Олег Баранов</t>
   </si>
   <si>
+    <t>9295779044</t>
+  </si>
+  <si>
+    <t>samogon19901</t>
+  </si>
+  <si>
+    <t>Олег Даценко</t>
+  </si>
+  <si>
+    <t>44742086467</t>
+  </si>
+  <si>
+    <t>bionica_osteo</t>
+  </si>
+  <si>
+    <t>Остеопрактика в Краснодаре</t>
+  </si>
+  <si>
+    <t>4767075514</t>
+  </si>
+  <si>
+    <t>pavel_hunt</t>
+  </si>
+  <si>
+    <t>Павел</t>
+  </si>
+  <si>
+    <t>18014063490</t>
+  </si>
+  <si>
+    <t>prognoz_tt_cup_setka_cup</t>
+  </si>
+  <si>
+    <t>Прогнозы на настольний тенис</t>
+  </si>
+  <si>
+    <t>7076447811</t>
+  </si>
+  <si>
+    <t>pavlishchuk_sania</t>
+  </si>
+  <si>
+    <t>Саня Павлищук</t>
+  </si>
+  <si>
+    <t>334729418</t>
+  </si>
+  <si>
+    <t>svetlana_krutik</t>
+  </si>
+  <si>
+    <t>Света Поцяпун</t>
+  </si>
+  <si>
+    <t>44006848755</t>
+  </si>
+  <si>
+    <t>taxi.lisichansk</t>
+  </si>
+  <si>
+    <t>Сергей</t>
+  </si>
+  <si>
+    <t>9134759088</t>
+  </si>
+  <si>
+    <t>sergeialeksandrov46</t>
+  </si>
+  <si>
+    <t>Сергей Александров</t>
+  </si>
+  <si>
+    <t>5581548784</t>
+  </si>
+  <si>
+    <t>sergkraina</t>
+  </si>
+  <si>
+    <t>Сергей Николаевич</t>
+  </si>
+  <si>
+    <t>8628968557</t>
+  </si>
+  <si>
+    <t>cybulin2018</t>
+  </si>
+  <si>
+    <t>Сергей Цыбулин</t>
+  </si>
+  <si>
+    <t>47540162800</t>
+  </si>
+  <si>
+    <t>table_tennis_shoping</t>
+  </si>
+  <si>
+    <t>Спортивний інвентар🏓</t>
+  </si>
+  <si>
+    <t>14016672808</t>
+  </si>
+  <si>
+    <t>batin_sbln</t>
+  </si>
+  <si>
+    <t>Станислав Ваганов</t>
+  </si>
+  <si>
+    <t>1969480744</t>
+  </si>
+  <si>
+    <t>jenina_jenya</t>
+  </si>
+  <si>
+    <t>СТУДИЯ JJ</t>
+  </si>
+  <si>
+    <t>9375328733</t>
+  </si>
+  <si>
+    <t>topspinshop.com.ua</t>
+  </si>
+  <si>
+    <t>ТОВАРЫ ДЛЯ НАСТОЛЬНОГО ТЕННИСА</t>
+  </si>
+  <si>
+    <t>46035603330</t>
+  </si>
+  <si>
+    <t>ttkrest</t>
+  </si>
+  <si>
+    <t>Товары для настольного тенниса</t>
+  </si>
+  <si>
+    <t>45364222360</t>
+  </si>
+  <si>
+    <t>misterbytik</t>
+  </si>
+  <si>
+    <t>ХАРЬКОВ | ДОСТАВКА ОБЕДОВ 🥗</t>
+  </si>
+  <si>
     <t>9365290165</t>
   </si>
   <si>
-    <t>olegavrishenko</t>
-  </si>
-  <si>
-    <t>Олег Гавришенко</t>
-  </si>
-  <si>
-    <t>9295779044</t>
-  </si>
-  <si>
-    <t>samogon19901</t>
-  </si>
-  <si>
-    <t>Олег Даценко</t>
-  </si>
-  <si>
-    <t>44742086467</t>
-  </si>
-  <si>
-    <t>bionica_osteo</t>
-  </si>
-  <si>
-    <t>Остеопрактика в Краснодаре</t>
-  </si>
-  <si>
-    <t>4767075514</t>
-  </si>
-  <si>
-    <t>pavel_hunt</t>
-  </si>
-  <si>
-    <t>Павел</t>
-  </si>
-  <si>
-    <t>18014063490</t>
-  </si>
-  <si>
-    <t>prognoz_tt_cup_setka_cup</t>
-  </si>
-  <si>
-    <t>Прогнозы на настольний тенис</t>
-  </si>
-  <si>
-    <t>7076447811</t>
-  </si>
-  <si>
-    <t>pavlishchuk_sania</t>
-  </si>
-  <si>
-    <t>Саня Павлищук</t>
-  </si>
-  <si>
-    <t>334729418</t>
-  </si>
-  <si>
-    <t>svetlana_krutik</t>
-  </si>
-  <si>
-    <t>Света Поцяпун</t>
-  </si>
-  <si>
-    <t>44006848755</t>
-  </si>
-  <si>
-    <t>taxi.lisichansk</t>
-  </si>
-  <si>
-    <t>Сергей</t>
-  </si>
-  <si>
-    <t>9134759088</t>
-  </si>
-  <si>
-    <t>sergeialeksandrov46</t>
-  </si>
-  <si>
-    <t>Сергей Александров</t>
-  </si>
-  <si>
-    <t>5581548784</t>
-  </si>
-  <si>
-    <t>sergkraina</t>
-  </si>
-  <si>
-    <t>Сергей Николаевич</t>
-  </si>
-  <si>
-    <t>8628968557</t>
-  </si>
-  <si>
-    <t>cybulin2018</t>
-  </si>
-  <si>
-    <t>Сергей Цыбулин</t>
-  </si>
-  <si>
-    <t>47540162800</t>
-  </si>
-  <si>
-    <t>table_tennis_shoping</t>
-  </si>
-  <si>
-    <t>Спортивний інвентар🏓</t>
-  </si>
-  <si>
-    <t>14016672808</t>
-  </si>
-  <si>
-    <t>batin_sbln</t>
-  </si>
-  <si>
-    <t>Станислав Ваганов</t>
-  </si>
-  <si>
-    <t>1969480744</t>
-  </si>
-  <si>
-    <t>jenina_jenya</t>
-  </si>
-  <si>
-    <t>СТУДИЯ JJ</t>
-  </si>
-  <si>
-    <t>9375328733</t>
-  </si>
-  <si>
-    <t>topspinshop.com.ua</t>
-  </si>
-  <si>
-    <t>ТОВАРЫ ДЛЯ НАСТОЛЬНОГО ТЕННИСА</t>
-  </si>
-  <si>
-    <t>46035603330</t>
-  </si>
-  <si>
-    <t>ttkrest</t>
-  </si>
-  <si>
-    <t>Товары для настольного тенниса</t>
-  </si>
-  <si>
-    <t>45364222360</t>
-  </si>
-  <si>
-    <t>misterbytik</t>
-  </si>
-  <si>
-    <t>ХАРЬКОВ | ДОСТАВКА ОБЕДОВ 🥗</t>
+    <t>case_table_tennis</t>
+  </si>
+  <si>
+    <t>Чехол table_tennis</t>
   </si>
   <si>
     <t>7587493365</t>
@@ -1427,7 +1451,7 @@
     <t>8630127905</t>
   </si>
   <si>
-    <t>iullia_iullia5019</t>
+    <t>iullia_iullia90</t>
   </si>
   <si>
     <t>Юляшка (АЛЕКС)</t>
@@ -1493,7 +1517,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C162"/>
+  <dimension ref="A1:C165"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2134,48 +2158,48 @@
         <v>167</v>
       </c>
       <c r="C58" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
+        <v>168</v>
+      </c>
+      <c r="B59" t="s">
         <v>169</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
         <v>170</v>
-      </c>
-      <c r="C59" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
+        <v>171</v>
+      </c>
+      <c r="B60" t="s">
         <v>172</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
         <v>173</v>
-      </c>
-      <c r="C60" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
+        <v>174</v>
+      </c>
+      <c r="B61" t="s">
         <v>175</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
         <v>176</v>
-      </c>
-      <c r="C61" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
+        <v>177</v>
+      </c>
+      <c r="B62" t="s">
         <v>178</v>
-      </c>
-      <c r="B62" t="s">
-        <v>179</v>
       </c>
       <c r="C62" t="s">
         <v>179</v>
@@ -2233,1052 +2257,1085 @@
         <v>193</v>
       </c>
       <c r="C67" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
+        <v>194</v>
+      </c>
+      <c r="B68" t="s">
         <v>195</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>196</v>
-      </c>
-      <c r="C68" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
+        <v>197</v>
+      </c>
+      <c r="B69" t="s">
         <v>198</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
         <v>199</v>
-      </c>
-      <c r="C69" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
+        <v>200</v>
+      </c>
+      <c r="B70" t="s">
         <v>201</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
         <v>202</v>
-      </c>
-      <c r="C70" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
+        <v>203</v>
+      </c>
+      <c r="B71" t="s">
         <v>204</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
         <v>205</v>
-      </c>
-      <c r="C71" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
+        <v>206</v>
+      </c>
+      <c r="B72" t="s">
         <v>207</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" t="s">
         <v>208</v>
-      </c>
-      <c r="C72" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
+        <v>209</v>
+      </c>
+      <c r="B73" t="s">
         <v>210</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" t="s">
         <v>211</v>
-      </c>
-      <c r="C73" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
+        <v>212</v>
+      </c>
+      <c r="B74" t="s">
         <v>213</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" t="s">
         <v>214</v>
-      </c>
-      <c r="C74" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
+        <v>215</v>
+      </c>
+      <c r="B75" t="s">
         <v>216</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" t="s">
         <v>217</v>
-      </c>
-      <c r="C75" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
+        <v>218</v>
+      </c>
+      <c r="B76" t="s">
         <v>219</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" t="s">
         <v>220</v>
-      </c>
-      <c r="C76" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
+        <v>221</v>
+      </c>
+      <c r="B77" t="s">
         <v>222</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" t="s">
         <v>223</v>
-      </c>
-      <c r="C77" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
+        <v>224</v>
+      </c>
+      <c r="B78" t="s">
         <v>225</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" t="s">
         <v>226</v>
-      </c>
-      <c r="C78" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
+        <v>227</v>
+      </c>
+      <c r="B79" t="s">
         <v>228</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C79" t="s">
         <v>229</v>
-      </c>
-      <c r="C79" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
+        <v>230</v>
+      </c>
+      <c r="B80" t="s">
         <v>231</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" t="s">
         <v>232</v>
-      </c>
-      <c r="C80" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
+        <v>233</v>
+      </c>
+      <c r="B81" t="s">
         <v>234</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" t="s">
         <v>235</v>
-      </c>
-      <c r="C81" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
+        <v>236</v>
+      </c>
+      <c r="B82" t="s">
         <v>237</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82" t="s">
         <v>238</v>
-      </c>
-      <c r="C82" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
+        <v>239</v>
+      </c>
+      <c r="B83" t="s">
         <v>240</v>
       </c>
-      <c r="B83" t="s">
-        <v>241</v>
-      </c>
       <c r="C83" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
+        <v>241</v>
+      </c>
+      <c r="B84" t="s">
+        <v>242</v>
+      </c>
+      <c r="C84" t="s">
         <v>243</v>
-      </c>
-      <c r="B84" t="s">
-        <v>244</v>
-      </c>
-      <c r="C84" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
+        <v>244</v>
+      </c>
+      <c r="B85" t="s">
         <v>245</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C85" t="s">
         <v>246</v>
-      </c>
-      <c r="C85" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
+        <v>247</v>
+      </c>
+      <c r="B86" t="s">
         <v>248</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86" t="s">
         <v>249</v>
-      </c>
-      <c r="C86" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
+        <v>250</v>
+      </c>
+      <c r="B87" t="s">
         <v>251</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C87" t="s">
         <v>252</v>
-      </c>
-      <c r="C87" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
+        <v>253</v>
+      </c>
+      <c r="B88" t="s">
         <v>254</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" t="s">
         <v>255</v>
-      </c>
-      <c r="C88" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
+        <v>256</v>
+      </c>
+      <c r="B89" t="s">
         <v>257</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C89" t="s">
         <v>258</v>
-      </c>
-      <c r="C89" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
+        <v>259</v>
+      </c>
+      <c r="B90" t="s">
         <v>260</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" t="s">
         <v>261</v>
-      </c>
-      <c r="C90" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
+        <v>262</v>
+      </c>
+      <c r="B91" t="s">
         <v>263</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
         <v>264</v>
-      </c>
-      <c r="C91" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
+        <v>265</v>
+      </c>
+      <c r="B92" t="s">
         <v>266</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C92" t="s">
         <v>267</v>
-      </c>
-      <c r="C92" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
+        <v>268</v>
+      </c>
+      <c r="B93" t="s">
         <v>269</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C93" t="s">
         <v>270</v>
-      </c>
-      <c r="C93" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
+        <v>271</v>
+      </c>
+      <c r="B94" t="s">
         <v>272</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C94" t="s">
         <v>273</v>
-      </c>
-      <c r="C94" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
+        <v>274</v>
+      </c>
+      <c r="B95" t="s">
         <v>275</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C95" t="s">
         <v>276</v>
-      </c>
-      <c r="C95" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
+        <v>277</v>
+      </c>
+      <c r="B96" t="s">
         <v>278</v>
       </c>
-      <c r="B96" t="s">
+      <c r="C96" t="s">
         <v>279</v>
-      </c>
-      <c r="C96" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
+        <v>280</v>
+      </c>
+      <c r="B97" t="s">
         <v>281</v>
       </c>
-      <c r="B97" t="s">
+      <c r="C97" t="s">
         <v>282</v>
-      </c>
-      <c r="C97" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
+        <v>283</v>
+      </c>
+      <c r="B98" t="s">
         <v>284</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C98" t="s">
         <v>285</v>
-      </c>
-      <c r="C98" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
+        <v>286</v>
+      </c>
+      <c r="B99" t="s">
         <v>287</v>
       </c>
-      <c r="B99" t="s">
+      <c r="C99" t="s">
         <v>288</v>
-      </c>
-      <c r="C99" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
+        <v>289</v>
+      </c>
+      <c r="B100" t="s">
         <v>290</v>
       </c>
-      <c r="B100" t="s">
+      <c r="C100" t="s">
         <v>291</v>
-      </c>
-      <c r="C100" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
+        <v>292</v>
+      </c>
+      <c r="B101" t="s">
         <v>293</v>
       </c>
-      <c r="B101" t="s">
+      <c r="C101" t="s">
         <v>294</v>
-      </c>
-      <c r="C101" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
+        <v>295</v>
+      </c>
+      <c r="B102" t="s">
         <v>296</v>
       </c>
-      <c r="B102" t="s">
+      <c r="C102" t="s">
         <v>297</v>
-      </c>
-      <c r="C102" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
+        <v>298</v>
+      </c>
+      <c r="B103" t="s">
         <v>299</v>
       </c>
-      <c r="B103" t="s">
+      <c r="C103" t="s">
         <v>300</v>
-      </c>
-      <c r="C103" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
+        <v>301</v>
+      </c>
+      <c r="B104" t="s">
         <v>302</v>
       </c>
-      <c r="B104" t="s">
+      <c r="C104" t="s">
         <v>303</v>
-      </c>
-      <c r="C104" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
+        <v>304</v>
+      </c>
+      <c r="B105" t="s">
         <v>305</v>
       </c>
-      <c r="B105" t="s">
+      <c r="C105" t="s">
         <v>306</v>
-      </c>
-      <c r="C105" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
+        <v>307</v>
+      </c>
+      <c r="B106" t="s">
         <v>308</v>
       </c>
-      <c r="B106" t="s">
+      <c r="C106" t="s">
         <v>309</v>
-      </c>
-      <c r="C106" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
+        <v>310</v>
+      </c>
+      <c r="B107" t="s">
         <v>311</v>
       </c>
-      <c r="B107" t="s">
+      <c r="C107" t="s">
         <v>312</v>
-      </c>
-      <c r="C107" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
+        <v>313</v>
+      </c>
+      <c r="B108" t="s">
         <v>314</v>
       </c>
-      <c r="B108" t="s">
+      <c r="C108" t="s">
         <v>315</v>
-      </c>
-      <c r="C108" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
+        <v>316</v>
+      </c>
+      <c r="B109" t="s">
         <v>317</v>
       </c>
-      <c r="B109" t="s">
+      <c r="C109" t="s">
         <v>318</v>
-      </c>
-      <c r="C109" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
+        <v>319</v>
+      </c>
+      <c r="B110" t="s">
         <v>320</v>
       </c>
-      <c r="B110" t="s">
+      <c r="C110" t="s">
         <v>321</v>
-      </c>
-      <c r="C110" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
+        <v>322</v>
+      </c>
+      <c r="B111" t="s">
         <v>323</v>
       </c>
-      <c r="B111" t="s">
+      <c r="C111" t="s">
         <v>324</v>
-      </c>
-      <c r="C111" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
+        <v>325</v>
+      </c>
+      <c r="B112" t="s">
         <v>326</v>
       </c>
-      <c r="B112" t="s">
+      <c r="C112" t="s">
         <v>327</v>
-      </c>
-      <c r="C112" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
+        <v>328</v>
+      </c>
+      <c r="B113" t="s">
         <v>329</v>
       </c>
-      <c r="B113" t="s">
+      <c r="C113" t="s">
         <v>330</v>
-      </c>
-      <c r="C113" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
+        <v>331</v>
+      </c>
+      <c r="B114" t="s">
         <v>332</v>
       </c>
-      <c r="B114" t="s">
+      <c r="C114" t="s">
         <v>333</v>
-      </c>
-      <c r="C114" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
+        <v>334</v>
+      </c>
+      <c r="B115" t="s">
         <v>335</v>
       </c>
-      <c r="B115" t="s">
+      <c r="C115" t="s">
         <v>336</v>
-      </c>
-      <c r="C115" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
+        <v>337</v>
+      </c>
+      <c r="B116" t="s">
         <v>338</v>
       </c>
-      <c r="B116" t="s">
+      <c r="C116" t="s">
         <v>339</v>
-      </c>
-      <c r="C116" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
+        <v>340</v>
+      </c>
+      <c r="B117" t="s">
         <v>341</v>
       </c>
-      <c r="B117" t="s">
+      <c r="C117" t="s">
         <v>342</v>
-      </c>
-      <c r="C117" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
+        <v>343</v>
+      </c>
+      <c r="B118" t="s">
         <v>344</v>
       </c>
-      <c r="B118" t="s">
+      <c r="C118" t="s">
         <v>345</v>
-      </c>
-      <c r="C118" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
+        <v>346</v>
+      </c>
+      <c r="B119" t="s">
         <v>347</v>
       </c>
-      <c r="B119" t="s">
+      <c r="C119" t="s">
         <v>348</v>
-      </c>
-      <c r="C119" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
+        <v>349</v>
+      </c>
+      <c r="B120" t="s">
         <v>350</v>
       </c>
-      <c r="B120" t="s">
+      <c r="C120" t="s">
         <v>351</v>
-      </c>
-      <c r="C120" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
+        <v>352</v>
+      </c>
+      <c r="B121" t="s">
         <v>353</v>
       </c>
-      <c r="B121" t="s">
+      <c r="C121" t="s">
         <v>354</v>
-      </c>
-      <c r="C121" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
+        <v>355</v>
+      </c>
+      <c r="B122" t="s">
         <v>356</v>
       </c>
-      <c r="B122" t="s">
+      <c r="C122" t="s">
         <v>357</v>
-      </c>
-      <c r="C122" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
+        <v>358</v>
+      </c>
+      <c r="B123" t="s">
         <v>359</v>
       </c>
-      <c r="B123" t="s">
+      <c r="C123" t="s">
         <v>360</v>
-      </c>
-      <c r="C123" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
+        <v>361</v>
+      </c>
+      <c r="B124" t="s">
         <v>362</v>
       </c>
-      <c r="B124" t="s">
+      <c r="C124" t="s">
         <v>363</v>
-      </c>
-      <c r="C124" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
+        <v>364</v>
+      </c>
+      <c r="B125" t="s">
         <v>365</v>
       </c>
-      <c r="B125" t="s">
+      <c r="C125" t="s">
         <v>366</v>
-      </c>
-      <c r="C125" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
+        <v>367</v>
+      </c>
+      <c r="B126" t="s">
         <v>368</v>
       </c>
-      <c r="B126" t="s">
+      <c r="C126" t="s">
         <v>369</v>
-      </c>
-      <c r="C126" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
+        <v>370</v>
+      </c>
+      <c r="B127" t="s">
         <v>371</v>
       </c>
-      <c r="B127" t="s">
+      <c r="C127" t="s">
         <v>372</v>
-      </c>
-      <c r="C127" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
+        <v>373</v>
+      </c>
+      <c r="B128" t="s">
         <v>374</v>
       </c>
-      <c r="B128" t="s">
+      <c r="C128" t="s">
         <v>375</v>
-      </c>
-      <c r="C128" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
+        <v>376</v>
+      </c>
+      <c r="B129" t="s">
         <v>377</v>
       </c>
-      <c r="B129" t="s">
+      <c r="C129" t="s">
         <v>378</v>
-      </c>
-      <c r="C129" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
+        <v>379</v>
+      </c>
+      <c r="B130" t="s">
         <v>380</v>
       </c>
-      <c r="B130" t="s">
+      <c r="C130" t="s">
         <v>381</v>
-      </c>
-      <c r="C130" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
+        <v>382</v>
+      </c>
+      <c r="B131" t="s">
         <v>383</v>
       </c>
-      <c r="B131" t="s">
+      <c r="C131" t="s">
         <v>384</v>
-      </c>
-      <c r="C131" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
+        <v>385</v>
+      </c>
+      <c r="B132" t="s">
         <v>386</v>
       </c>
-      <c r="B132" t="s">
+      <c r="C132" t="s">
         <v>387</v>
-      </c>
-      <c r="C132" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
+        <v>388</v>
+      </c>
+      <c r="B133" t="s">
         <v>389</v>
       </c>
-      <c r="B133" t="s">
+      <c r="C133" t="s">
         <v>390</v>
-      </c>
-      <c r="C133" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
+        <v>391</v>
+      </c>
+      <c r="B134" t="s">
         <v>392</v>
       </c>
-      <c r="B134" t="s">
+      <c r="C134" t="s">
         <v>393</v>
-      </c>
-      <c r="C134" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
+        <v>394</v>
+      </c>
+      <c r="B135" t="s">
         <v>395</v>
       </c>
-      <c r="B135" t="s">
+      <c r="C135" t="s">
         <v>396</v>
-      </c>
-      <c r="C135" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
+        <v>397</v>
+      </c>
+      <c r="B136" t="s">
         <v>398</v>
       </c>
-      <c r="B136" t="s">
+      <c r="C136" t="s">
         <v>399</v>
-      </c>
-      <c r="C136" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
+        <v>400</v>
+      </c>
+      <c r="B137" t="s">
         <v>401</v>
       </c>
-      <c r="B137" t="s">
+      <c r="C137" t="s">
         <v>402</v>
-      </c>
-      <c r="C137" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
+        <v>403</v>
+      </c>
+      <c r="B138" t="s">
         <v>404</v>
       </c>
-      <c r="B138" t="s">
+      <c r="C138" t="s">
         <v>405</v>
-      </c>
-      <c r="C138" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
+        <v>406</v>
+      </c>
+      <c r="B139" t="s">
         <v>407</v>
       </c>
-      <c r="B139" t="s">
+      <c r="C139" t="s">
         <v>408</v>
-      </c>
-      <c r="C139" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
+        <v>409</v>
+      </c>
+      <c r="B140" t="s">
         <v>410</v>
       </c>
-      <c r="B140" t="s">
+      <c r="C140" t="s">
         <v>411</v>
-      </c>
-      <c r="C140" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
+        <v>412</v>
+      </c>
+      <c r="B141" t="s">
         <v>413</v>
       </c>
-      <c r="B141" t="s">
+      <c r="C141" t="s">
         <v>414</v>
-      </c>
-      <c r="C141" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
+        <v>415</v>
+      </c>
+      <c r="B142" t="s">
         <v>416</v>
       </c>
-      <c r="B142" t="s">
+      <c r="C142" t="s">
         <v>417</v>
-      </c>
-      <c r="C142" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
+        <v>418</v>
+      </c>
+      <c r="B143" t="s">
         <v>419</v>
       </c>
-      <c r="B143" t="s">
+      <c r="C143" t="s">
         <v>420</v>
-      </c>
-      <c r="C143" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
+        <v>421</v>
+      </c>
+      <c r="B144" t="s">
         <v>422</v>
       </c>
-      <c r="B144" t="s">
+      <c r="C144" t="s">
         <v>423</v>
-      </c>
-      <c r="C144" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
+        <v>424</v>
+      </c>
+      <c r="B145" t="s">
         <v>425</v>
       </c>
-      <c r="B145" t="s">
+      <c r="C145" t="s">
         <v>426</v>
-      </c>
-      <c r="C145" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
+        <v>427</v>
+      </c>
+      <c r="B146" t="s">
         <v>428</v>
       </c>
-      <c r="B146" t="s">
+      <c r="C146" t="s">
         <v>429</v>
-      </c>
-      <c r="C146" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
+        <v>430</v>
+      </c>
+      <c r="B147" t="s">
         <v>431</v>
       </c>
-      <c r="B147" t="s">
+      <c r="C147" t="s">
         <v>432</v>
-      </c>
-      <c r="C147" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
+        <v>433</v>
+      </c>
+      <c r="B148" t="s">
         <v>434</v>
       </c>
-      <c r="B148" t="s">
+      <c r="C148" t="s">
         <v>435</v>
-      </c>
-      <c r="C148" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
+        <v>436</v>
+      </c>
+      <c r="B149" t="s">
         <v>437</v>
       </c>
-      <c r="B149" t="s">
+      <c r="C149" t="s">
         <v>438</v>
-      </c>
-      <c r="C149" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
+        <v>439</v>
+      </c>
+      <c r="B150" t="s">
         <v>440</v>
       </c>
-      <c r="B150" t="s">
+      <c r="C150" t="s">
         <v>441</v>
-      </c>
-      <c r="C150" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
+        <v>442</v>
+      </c>
+      <c r="B151" t="s">
         <v>443</v>
       </c>
-      <c r="B151" t="s">
+      <c r="C151" t="s">
         <v>444</v>
-      </c>
-      <c r="C151" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
+        <v>445</v>
+      </c>
+      <c r="B152" t="s">
         <v>446</v>
       </c>
-      <c r="B152" t="s">
+      <c r="C152" t="s">
         <v>447</v>
-      </c>
-      <c r="C152" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
+        <v>448</v>
+      </c>
+      <c r="B153" t="s">
         <v>449</v>
       </c>
-      <c r="B153" t="s">
+      <c r="C153" t="s">
         <v>450</v>
-      </c>
-      <c r="C153" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
+        <v>451</v>
+      </c>
+      <c r="B154" t="s">
         <v>452</v>
       </c>
-      <c r="B154" t="s">
+      <c r="C154" t="s">
         <v>453</v>
-      </c>
-      <c r="C154" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
+        <v>454</v>
+      </c>
+      <c r="B155" t="s">
         <v>455</v>
       </c>
-      <c r="B155" t="s">
+      <c r="C155" t="s">
         <v>456</v>
-      </c>
-      <c r="C155" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
+        <v>457</v>
+      </c>
+      <c r="B156" t="s">
         <v>458</v>
       </c>
-      <c r="B156" t="s">
+      <c r="C156" t="s">
         <v>459</v>
-      </c>
-      <c r="C156" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
+        <v>460</v>
+      </c>
+      <c r="B157" t="s">
         <v>461</v>
       </c>
-      <c r="B157" t="s">
+      <c r="C157" t="s">
         <v>462</v>
-      </c>
-      <c r="C157" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
+        <v>463</v>
+      </c>
+      <c r="B158" t="s">
         <v>464</v>
       </c>
-      <c r="B158" t="s">
+      <c r="C158" t="s">
         <v>465</v>
-      </c>
-      <c r="C158" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
+        <v>466</v>
+      </c>
+      <c r="B159" t="s">
         <v>467</v>
       </c>
-      <c r="B159" t="s">
+      <c r="C159" t="s">
         <v>468</v>
-      </c>
-      <c r="C159" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
+        <v>469</v>
+      </c>
+      <c r="B160" t="s">
         <v>470</v>
       </c>
-      <c r="B160" t="s">
+      <c r="C160" t="s">
         <v>471</v>
-      </c>
-      <c r="C160" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
+        <v>472</v>
+      </c>
+      <c r="B161" t="s">
         <v>473</v>
       </c>
-      <c r="B161" t="s">
+      <c r="C161" t="s">
         <v>474</v>
-      </c>
-      <c r="C161" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
+        <v>475</v>
+      </c>
+      <c r="B162" t="s">
         <v>476</v>
       </c>
-      <c r="B162" t="s">
+      <c r="C162" t="s">
         <v>477</v>
       </c>
-      <c r="C162" t="s">
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
         <v>478</v>
+      </c>
+      <c r="B163" t="s">
+        <v>479</v>
+      </c>
+      <c r="C163" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>481</v>
+      </c>
+      <c r="B164" t="s">
+        <v>482</v>
+      </c>
+      <c r="C164" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>484</v>
+      </c>
+      <c r="B165" t="s">
+        <v>485</v>
+      </c>
+      <c r="C165" t="s">
+        <v>486</v>
       </c>
     </row>
   </sheetData>

--- a/Followers.xlsx
+++ b/Followers.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="437">
   <si>
     <t>1665158140</t>
   </si>
@@ -125,15 +125,6 @@
     <t>Anastasiia Lukina</t>
   </si>
   <si>
-    <t>1557036485</t>
-  </si>
-  <si>
-    <t>anatolii_balakiriev</t>
-  </si>
-  <si>
-    <t>Anatolii Balakiriev</t>
-  </si>
-  <si>
     <t>10933221669</t>
   </si>
   <si>
@@ -197,33 +188,6 @@
     <t>Dmitry Smirnov</t>
   </si>
   <si>
-    <t>47870145431</t>
-  </si>
-  <si>
-    <t>dr.tabletennis</t>
-  </si>
-  <si>
-    <t>Dr. Table Tennis</t>
-  </si>
-  <si>
-    <t>37337003520</t>
-  </si>
-  <si>
-    <t>apextech.co</t>
-  </si>
-  <si>
-    <t>Driven by Synergy</t>
-  </si>
-  <si>
-    <t>8288595286</t>
-  </si>
-  <si>
-    <t>svetlanafarmasi_zt</t>
-  </si>
-  <si>
-    <t>farmasi_svetlana_zt</t>
-  </si>
-  <si>
     <t>7694075739</t>
   </si>
   <si>
@@ -350,15 +314,6 @@
     <t>Lena</t>
   </si>
   <si>
-    <t>1499488855</t>
-  </si>
-  <si>
-    <t>listo717</t>
-  </si>
-  <si>
-    <t>Listowellagyemang</t>
-  </si>
-  <si>
     <t>5589026095</t>
   </si>
   <si>
@@ -395,6 +350,15 @@
     <t>Manuel Kobby</t>
   </si>
   <si>
+    <t>49695917410</t>
+  </si>
+  <si>
+    <t>msaltanovska</t>
+  </si>
+  <si>
+    <t>Margarita Saltanovskaya</t>
+  </si>
+  <si>
     <t>4974294280</t>
   </si>
   <si>
@@ -404,15 +368,6 @@
     <t>Margitta</t>
   </si>
   <si>
-    <t>49695917410</t>
-  </si>
-  <si>
-    <t>msaltanovska</t>
-  </si>
-  <si>
-    <t>Marharyta Saltanovska</t>
-  </si>
-  <si>
     <t>479640061</t>
   </si>
   <si>
@@ -422,15 +377,6 @@
     <t>Marina Bezuglaya</t>
   </si>
   <si>
-    <t>46085251422</t>
-  </si>
-  <si>
-    <t>table_tennis_mastens_store</t>
-  </si>
-  <si>
-    <t>Mastens-Global</t>
-  </si>
-  <si>
     <t>46919920426</t>
   </si>
   <si>
@@ -503,15 +449,6 @@
     <t>Olha Sanzharovska</t>
   </si>
   <si>
-    <t>6720001536</t>
-  </si>
-  <si>
-    <t>vita.prishchepa</t>
-  </si>
-  <si>
-    <t>PrishchepaVictoria</t>
-  </si>
-  <si>
     <t>718852048</t>
   </si>
   <si>
@@ -521,7 +458,7 @@
     <t>7239973909</t>
   </si>
   <si>
-    <t>therealretchy</t>
+    <t>ruslanvadimovich24</t>
   </si>
   <si>
     <t>Ruslan Vadimovich</t>
@@ -581,30 +518,6 @@
     <t>Sveta</t>
   </si>
   <si>
-    <t>8665544898</t>
-  </si>
-  <si>
-    <t>ser18ab1</t>
-  </si>
-  <si>
-    <t>Table Tennis</t>
-  </si>
-  <si>
-    <t>2208926227</t>
-  </si>
-  <si>
-    <t>table10nis</t>
-  </si>
-  <si>
-    <t>49494535539</t>
-  </si>
-  <si>
-    <t>baterfly.2021</t>
-  </si>
-  <si>
-    <t>Tex.Textile</t>
-  </si>
-  <si>
     <t>41902230851</t>
   </si>
   <si>
@@ -659,15 +572,6 @@
     <t>Vita</t>
   </si>
   <si>
-    <t>5649619609</t>
-  </si>
-  <si>
-    <t>tengoku_</t>
-  </si>
-  <si>
-    <t>Vlada</t>
-  </si>
-  <si>
     <t>2460313075</t>
   </si>
   <si>
@@ -704,15 +608,6 @@
     <t>Александр Сигин</t>
   </si>
   <si>
-    <t>45293517096</t>
-  </si>
-  <si>
-    <t>aleksandrstepanenko761</t>
-  </si>
-  <si>
-    <t>Александр Степаненко</t>
-  </si>
-  <si>
     <t>2052730441</t>
   </si>
   <si>
@@ -809,15 +704,6 @@
     <t>Валерий Кузнецов</t>
   </si>
   <si>
-    <t>17928430301</t>
-  </si>
-  <si>
-    <t>tiffany_kharkiv</t>
-  </si>
-  <si>
-    <t>Валерия Тиффани</t>
-  </si>
-  <si>
     <t>42271971663</t>
   </si>
   <si>
@@ -1070,15 +956,6 @@
     <t>Катя Новик</t>
   </si>
   <si>
-    <t>45569823811</t>
-  </si>
-  <si>
-    <t>a30_table_tennis</t>
-  </si>
-  <si>
-    <t>КЛУБ НАСТОЛЬНОГО ТЕННИСА КИЕВ</t>
-  </si>
-  <si>
     <t>4349200104</t>
   </si>
   <si>
@@ -1160,15 +1037,6 @@
     <t>Мирослав Бакута</t>
   </si>
   <si>
-    <t>7877598311</t>
-  </si>
-  <si>
-    <t>bugaiovmikhailo</t>
-  </si>
-  <si>
-    <t>Михайло Бугайов</t>
-  </si>
-  <si>
     <t>31770896422</t>
   </si>
   <si>
@@ -1187,6 +1055,15 @@
     <t>НАСТОЛЬНЫЙ ТЕННИС ХАРЬКОВ</t>
   </si>
   <si>
+    <t>50119994531</t>
+  </si>
+  <si>
+    <t>table_tennis_kh</t>
+  </si>
+  <si>
+    <t>Настольный теннис | Харьков</t>
+  </si>
+  <si>
     <t>9480853479</t>
   </si>
   <si>
@@ -1241,15 +1118,6 @@
     <t>Николай</t>
   </si>
   <si>
-    <t>3898120046</t>
-  </si>
-  <si>
-    <t>ttukraine</t>
-  </si>
-  <si>
-    <t>НТ України</t>
-  </si>
-  <si>
     <t>6535902432</t>
   </si>
   <si>
@@ -1304,13 +1172,13 @@
     <t>Павел</t>
   </si>
   <si>
-    <t>18014063490</t>
-  </si>
-  <si>
-    <t>prognoz_tt_cup_setka_cup</t>
-  </si>
-  <si>
-    <t>Прогнозы на настольний тенис</t>
+    <t>1969480744</t>
+  </si>
+  <si>
+    <t>jenina_jenya</t>
+  </si>
+  <si>
+    <t>САЙТЫ/ПРОДВИЖЕНИЕ БИЗНЕСА</t>
   </si>
   <si>
     <t>7076447811</t>
@@ -1367,15 +1235,6 @@
     <t>Сергей Цыбулин</t>
   </si>
   <si>
-    <t>47540162800</t>
-  </si>
-  <si>
-    <t>table_tennis_shoping</t>
-  </si>
-  <si>
-    <t>Спортивний інвентар🏓</t>
-  </si>
-  <si>
     <t>14016672808</t>
   </si>
   <si>
@@ -1385,13 +1244,13 @@
     <t>Станислав Ваганов</t>
   </si>
   <si>
-    <t>1969480744</t>
-  </si>
-  <si>
-    <t>jenina_jenya</t>
-  </si>
-  <si>
-    <t>СТУДИЯ JJ</t>
+    <t>50677357077</t>
+  </si>
+  <si>
+    <t>timofeycat7</t>
+  </si>
+  <si>
+    <t>Тимофей</t>
   </si>
   <si>
     <t>9375328733</t>
@@ -1412,24 +1271,6 @@
     <t>Товары для настольного тенниса</t>
   </si>
   <si>
-    <t>45364222360</t>
-  </si>
-  <si>
-    <t>misterbytik</t>
-  </si>
-  <si>
-    <t>ХАРЬКОВ | ДОСТАВКА ОБЕДОВ 🥗</t>
-  </si>
-  <si>
-    <t>9365290165</t>
-  </si>
-  <si>
-    <t>case_table_tennis</t>
-  </si>
-  <si>
-    <t>Чехол table_tennis</t>
-  </si>
-  <si>
     <t>7587493365</t>
   </si>
   <si>
@@ -1473,6 +1314,15 @@
   </si>
   <si>
     <t>🌎 Irina Korba  #Kharkiv 🌎</t>
+  </si>
+  <si>
+    <t>50269743030</t>
+  </si>
+  <si>
+    <t>444_kot_444</t>
+  </si>
+  <si>
+    <t>😎😎😎</t>
   </si>
 </sst>
 </file>
@@ -1517,7 +1367,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C165"/>
+  <dimension ref="A1:C148"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2081,81 +1931,81 @@
         <v>146</v>
       </c>
       <c r="C51" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
+        <v>147</v>
+      </c>
+      <c r="B52" t="s">
         <v>148</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>149</v>
-      </c>
-      <c r="C52" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
+        <v>150</v>
+      </c>
+      <c r="B53" t="s">
         <v>151</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>152</v>
-      </c>
-      <c r="C53" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
+        <v>153</v>
+      </c>
+      <c r="B54" t="s">
         <v>154</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>155</v>
-      </c>
-      <c r="C54" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
+        <v>156</v>
+      </c>
+      <c r="B55" t="s">
         <v>157</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>158</v>
-      </c>
-      <c r="C55" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
+        <v>159</v>
+      </c>
+      <c r="B56" t="s">
         <v>160</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
         <v>161</v>
-      </c>
-      <c r="C56" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
+        <v>162</v>
+      </c>
+      <c r="B57" t="s">
         <v>163</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
         <v>164</v>
-      </c>
-      <c r="C57" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
+        <v>165</v>
+      </c>
+      <c r="B58" t="s">
         <v>166</v>
-      </c>
-      <c r="B58" t="s">
-        <v>167</v>
       </c>
       <c r="C58" t="s">
         <v>167</v>
@@ -2257,51 +2107,51 @@
         <v>193</v>
       </c>
       <c r="C67" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B68" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C68" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B69" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C69" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B70" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C70" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
+        <v>204</v>
+      </c>
+      <c r="B71" t="s">
+        <v>205</v>
+      </c>
+      <c r="C71" t="s">
         <v>203</v>
-      </c>
-      <c r="B71" t="s">
-        <v>204</v>
-      </c>
-      <c r="C71" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="72">
@@ -2433,909 +2283,722 @@
         <v>240</v>
       </c>
       <c r="C83" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B84" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C84" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B85" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C85" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B86" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C86" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B87" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C87" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B88" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C88" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B89" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C89" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B90" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C90" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B91" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C91" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B92" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C92" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B93" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C93" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B94" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C94" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B95" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C95" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B96" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C96" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B97" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C97" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B98" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C98" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B99" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C99" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B100" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C100" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B101" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C101" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B102" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C102" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B103" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C103" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B104" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C104" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B105" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C105" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B106" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C106" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B107" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C107" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B108" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C108" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B109" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C109" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B110" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C110" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B111" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C111" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B112" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C112" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B113" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C113" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B114" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C114" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B115" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C115" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B116" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C116" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B117" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C117" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B118" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C118" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B119" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C119" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B120" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C120" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B121" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C121" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B122" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C122" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B123" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C123" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B124" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C124" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B125" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C125" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B126" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C126" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B127" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C127" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B128" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C128" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B129" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C129" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B130" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C130" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B131" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C131" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B132" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C132" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B133" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C133" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B134" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C134" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B135" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C135" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B136" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C136" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B137" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C137" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B138" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C138" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B139" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C139" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B140" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C140" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B141" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C141" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B142" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C142" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B143" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C143" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B144" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C144" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B145" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C145" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B146" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C146" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B147" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C147" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B148" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C148" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="s">
         <v>436</v>
-      </c>
-      <c r="B149" t="s">
-        <v>437</v>
-      </c>
-      <c r="C149" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="s">
-        <v>439</v>
-      </c>
-      <c r="B150" t="s">
-        <v>440</v>
-      </c>
-      <c r="C150" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="s">
-        <v>442</v>
-      </c>
-      <c r="B151" t="s">
-        <v>443</v>
-      </c>
-      <c r="C151" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="s">
-        <v>445</v>
-      </c>
-      <c r="B152" t="s">
-        <v>446</v>
-      </c>
-      <c r="C152" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="s">
-        <v>448</v>
-      </c>
-      <c r="B153" t="s">
-        <v>449</v>
-      </c>
-      <c r="C153" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="s">
-        <v>451</v>
-      </c>
-      <c r="B154" t="s">
-        <v>452</v>
-      </c>
-      <c r="C154" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="s">
-        <v>454</v>
-      </c>
-      <c r="B155" t="s">
-        <v>455</v>
-      </c>
-      <c r="C155" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="s">
-        <v>457</v>
-      </c>
-      <c r="B156" t="s">
-        <v>458</v>
-      </c>
-      <c r="C156" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="s">
-        <v>460</v>
-      </c>
-      <c r="B157" t="s">
-        <v>461</v>
-      </c>
-      <c r="C157" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="s">
-        <v>463</v>
-      </c>
-      <c r="B158" t="s">
-        <v>464</v>
-      </c>
-      <c r="C158" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="s">
-        <v>466</v>
-      </c>
-      <c r="B159" t="s">
-        <v>467</v>
-      </c>
-      <c r="C159" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="s">
-        <v>469</v>
-      </c>
-      <c r="B160" t="s">
-        <v>470</v>
-      </c>
-      <c r="C160" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="s">
-        <v>472</v>
-      </c>
-      <c r="B161" t="s">
-        <v>473</v>
-      </c>
-      <c r="C161" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="s">
-        <v>475</v>
-      </c>
-      <c r="B162" t="s">
-        <v>476</v>
-      </c>
-      <c r="C162" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="s">
-        <v>478</v>
-      </c>
-      <c r="B163" t="s">
-        <v>479</v>
-      </c>
-      <c r="C163" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="s">
-        <v>481</v>
-      </c>
-      <c r="B164" t="s">
-        <v>482</v>
-      </c>
-      <c r="C164" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="s">
-        <v>484</v>
-      </c>
-      <c r="B165" t="s">
-        <v>485</v>
-      </c>
-      <c r="C165" t="s">
-        <v>486</v>
       </c>
     </row>
   </sheetData>
